--- a/picture-language/vector.xlsx
+++ b/picture-language/vector.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="6190" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="6190" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="2.02" sheetId="2" r:id="rId1"/>
-    <sheet name="普通のベクトルの考え方" sheetId="4" r:id="rId2"/>
+    <sheet name="普通のベクトルの考え方" sheetId="4" r:id="rId1"/>
+    <sheet name="SICPの設定方法" sheetId="6" r:id="rId2"/>
+    <sheet name="そもそのも考え方" sheetId="7" r:id="rId3"/>
+    <sheet name="SICP(rotate90)" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -22,6 +24,81 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>の意味は？</t>
+    <rPh sb="1" eb="3">
+      <t>イミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・任意の座標は、線形結合で表すことができる。</t>
+    <rPh sb="1" eb="3">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センケイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・線形写像後も、線形結合で表すことができる。</t>
+    <rPh sb="1" eb="3">
+      <t>センケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シャゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センケイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>線形写像は規定ベクトルに関して以下の性質がある。</t>
+    <rPh sb="0" eb="2">
+      <t>センケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シャゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キテイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セイシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -90,36 +167,38 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線矢印コネクタ 2"/>
+        <xdr:cNvPr id="34" name="直線矢印コネクタ 33"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1905000" y="927100"/>
-          <a:ext cx="0" cy="3695700"/>
+          <a:off x="7924800" y="1270000"/>
+          <a:ext cx="304800" cy="889000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="19050">
+        <a:ln w="25400">
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
           </a:solidFill>
-          <a:headEnd w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="lg"/>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="none" w="lg" len="lg"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -139,590 +218,6 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直線矢印コネクタ 4"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1574800" y="4279900"/>
-          <a:ext cx="4756150" cy="6350"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="265907" cy="311496"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1612900" y="806450"/>
-          <a:ext cx="265907" cy="311496"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>y</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="265907" cy="311496"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6203950" y="4337050"/>
-          <a:ext cx="265907" cy="311496"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>x</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="303545" cy="311496"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1593850" y="4311650"/>
-          <a:ext cx="303545" cy="311496"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>O</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2863850" y="2762250"/>
-          <a:ext cx="2546350" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1209947" cy="311496"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2273300" y="3441700"/>
-          <a:ext cx="1209947" cy="311496"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>start-segment</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1148841" cy="311496"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4851400" y="2349500"/>
-          <a:ext cx="1148841" cy="311496"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>end-segment</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1534587" cy="311496"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4038600" y="3092450"/>
-          <a:ext cx="1534587" cy="311496"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>midpoint-segment</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="520335" cy="311496"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="テキスト ボックス 23"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2279650" y="3619500"/>
-          <a:ext cx="520335" cy="311496"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>(3,3)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="611321" cy="311496"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="テキスト ボックス 24"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5518150" y="2546350"/>
-          <a:ext cx="611321" cy="311496"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>(11,5)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>234950</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="520335" cy="311496"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="テキスト ボックス 25"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4070350" y="3282950"/>
-          <a:ext cx="520335" cy="311496"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>(7,4)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -1846,7 +1341,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>222250</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="790088" cy="311496"/>
+    <xdr:ext cx="1180195" cy="311496"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="39" name="テキスト ボックス 38"/>
@@ -1855,7 +1350,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6432550" y="1746250"/>
-          <a:ext cx="790088" cy="311496"/>
+          <a:ext cx="1180195" cy="311496"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1884,7 +1379,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>e2=(1,3)</a:t>
+            <a:t>corner2=(1,3)</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
         </a:p>
@@ -1899,7 +1394,7 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="790088" cy="311496"/>
+    <xdr:ext cx="1180195" cy="311496"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="40" name="テキスト ボックス 39"/>
@@ -1908,7 +1403,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7397750" y="2197100"/>
-          <a:ext cx="790088" cy="311496"/>
+          <a:ext cx="1180195" cy="311496"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1937,7 +1432,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>e1=(3,1)</a:t>
+            <a:t>corner1=(3,1)</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
         </a:p>
@@ -1952,7 +1447,7 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>298450</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1298112" cy="311496"/>
+    <xdr:ext cx="1688219" cy="311496"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="47" name="テキスト ボックス 46"/>
@@ -1961,7 +1456,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7029450" y="1212850"/>
-          <a:ext cx="1298112" cy="311496"/>
+          <a:ext cx="1688219" cy="311496"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1990,7 +1485,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>origin+e2=(5,6)</a:t>
+            <a:t>origin+corner2=(5,6)</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
         </a:p>
@@ -1998,6 +1493,59 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直線矢印コネクタ 34"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7315200" y="1327150"/>
+          <a:ext cx="876300" cy="222250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
@@ -2005,7 +1553,7 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1298112" cy="311496"/>
+    <xdr:ext cx="1688219" cy="311496"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="48" name="テキスト ボックス 47"/>
@@ -2014,7 +1562,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8051800" y="1936750"/>
-          <a:ext cx="1298112" cy="311496"/>
+          <a:ext cx="1688219" cy="311496"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2043,7 +1591,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>origin+e1=(7,4)</a:t>
+            <a:t>origin+corner1=(7,4)</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
         </a:p>
@@ -2051,6 +1599,5833 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直線矢印コネクタ 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4133850" y="1308100"/>
+          <a:ext cx="304800" cy="889000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3524250" y="1365250"/>
+          <a:ext cx="876300" cy="222250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="直線矢印コネクタ 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1905000" y="927100"/>
+          <a:ext cx="0" cy="2781300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1587500" y="3365500"/>
+          <a:ext cx="2838450" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="265907" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1612900" y="806450"/>
+          <a:ext cx="265907" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>y</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="265907" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4298950" y="3422650"/>
+          <a:ext cx="265907" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>x</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="303545" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1593850" y="3397250"/>
+          <a:ext cx="303545" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>O</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1028358" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2571750" y="2705100"/>
+          <a:ext cx="1028358" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>origin=(4,3)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3175000" y="1562100"/>
+          <a:ext cx="304800" cy="889000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3200400" y="2171700"/>
+          <a:ext cx="939800" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1911350" y="2438400"/>
+          <a:ext cx="1320800" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1180195" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2622550" y="1746250"/>
+          <a:ext cx="1180195" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>corner2=(1,3)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1180195" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3587750" y="2197100"/>
+          <a:ext cx="1180195" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>corner1=(3,1)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>298450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1688219" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3219450" y="1212850"/>
+          <a:ext cx="1688219" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>origin+corner2=(5,6)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1688219" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4241800" y="1936750"/>
+          <a:ext cx="1688219" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>origin+corner1=(7,4)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6350000" y="927100"/>
+          <a:ext cx="0" cy="2781300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6032500" y="3365500"/>
+          <a:ext cx="2838450" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="265907" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057900" y="806450"/>
+          <a:ext cx="265907" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>y</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="265907" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8743950" y="3422650"/>
+          <a:ext cx="265907" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>x</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="303545" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6038850" y="3397250"/>
+          <a:ext cx="303545" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>O</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1028358" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6953250" y="2914650"/>
+          <a:ext cx="1028358" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>origin=(4,3)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7620000" y="1562100"/>
+          <a:ext cx="304800" cy="889000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7645400" y="2171700"/>
+          <a:ext cx="939800" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6356350" y="2438400"/>
+          <a:ext cx="1320800" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>298450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1180195" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7664450" y="1212850"/>
+          <a:ext cx="1180195" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>corner2=(5,6)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1180195" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8686800" y="1936750"/>
+          <a:ext cx="1180195" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>corner1=(7,4)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6343650" y="1574800"/>
+          <a:ext cx="1568450" cy="1778000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線矢印コネクタ 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6388100" y="2133600"/>
+          <a:ext cx="2184400" cy="1174750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2609850" cy="1478482"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6223000" y="3898900"/>
+          <a:ext cx="2609850" cy="1478482"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>SICP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t> 図形言語での</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>枠の原点</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>枠の辺１</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>枠の辺２</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>の指定方法</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8534400" y="1301750"/>
+          <a:ext cx="304800" cy="889000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線矢印コネクタ 31"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7924800" y="1358900"/>
+          <a:ext cx="876300" cy="222250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="右矢印 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4552950" y="2635250"/>
+          <a:ext cx="1212850" cy="635000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="直線矢印コネクタ 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4133850" y="1308100"/>
+          <a:ext cx="304800" cy="889000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3524250" y="1365250"/>
+          <a:ext cx="876300" cy="222250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1905000" y="927100"/>
+          <a:ext cx="0" cy="2781300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1587500" y="3365500"/>
+          <a:ext cx="2838450" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="265907" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1612900" y="806450"/>
+          <a:ext cx="265907" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>y</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="265907" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4298950" y="3422650"/>
+          <a:ext cx="265907" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>x</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="303545" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1593850" y="3397250"/>
+          <a:ext cx="303545" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>O</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1028358" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2571750" y="2705100"/>
+          <a:ext cx="1028358" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>origin=(4,3)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3175000" y="1562100"/>
+          <a:ext cx="304800" cy="889000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3200400" y="2171700"/>
+          <a:ext cx="939800" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1911350" y="2438400"/>
+          <a:ext cx="1320800" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1180195" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2622550" y="1746250"/>
+          <a:ext cx="1180195" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>corner2=(1,3)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1180195" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3587750" y="2197100"/>
+          <a:ext cx="1180195" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>corner1=(3,1)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>234950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="線吹き出し 2 (枠付き) 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2381250" y="3892550"/>
+          <a:ext cx="1295400" cy="692150"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 18750"/>
+            <a:gd name="adj4" fmla="val -16667"/>
+            <a:gd name="adj5" fmla="val -83830"/>
+            <a:gd name="adj6" fmla="val -28530"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>②アフィン写像</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>（平行移動）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>234950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="線吹き出し 2 (枠付き) 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4794250" y="539750"/>
+          <a:ext cx="1295400" cy="692150"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 18750"/>
+            <a:gd name="adj4" fmla="val -16667"/>
+            <a:gd name="adj5" fmla="val 140941"/>
+            <a:gd name="adj6" fmla="val -93236"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>①線形写像</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2×2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の行列により与えられる）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線矢印コネクタ 35"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2889250" y="6794500"/>
+          <a:ext cx="304800" cy="889000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直線矢印コネクタ 36"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2279650" y="6851650"/>
+          <a:ext cx="876300" cy="222250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="none" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直線矢印コネクタ 37"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1905000" y="927100"/>
+          <a:ext cx="0" cy="2781300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直線矢印コネクタ 38"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1587500" y="3365500"/>
+          <a:ext cx="2838450" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="265907" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="テキスト ボックス 39"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1612900" y="806450"/>
+          <a:ext cx="265907" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>y</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="265907" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="テキスト ボックス 40"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4298950" y="3422650"/>
+          <a:ext cx="265907" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>x</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="303545" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="テキスト ボックス 41"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1593850" y="3397250"/>
+          <a:ext cx="303545" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>O</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線矢印コネクタ 43"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1930400" y="7048500"/>
+          <a:ext cx="304800" cy="889000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線矢印コネクタ 44"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1955800" y="7658100"/>
+          <a:ext cx="939800" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1180195" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="テキスト ボックス 46"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1377950" y="7232650"/>
+          <a:ext cx="1180195" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>corner2=(1,3)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1180195" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="テキスト ボックス 47"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="7683500"/>
+          <a:ext cx="1180195" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>corner1=(3,1)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>298450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="線吹き出し 2 (枠付き) 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3568700" y="5784850"/>
+          <a:ext cx="1295400" cy="692150"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 18750"/>
+            <a:gd name="adj4" fmla="val -16667"/>
+            <a:gd name="adj5" fmla="val 140941"/>
+            <a:gd name="adj6" fmla="val -93236"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>①線形写像</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2×2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の行列により与えられる）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="直線矢印コネクタ 70"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1905000" y="927100"/>
+          <a:ext cx="0" cy="2781300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="直線矢印コネクタ 71"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1587500" y="3365500"/>
+          <a:ext cx="2838450" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="265907" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="テキスト ボックス 72"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1612900" y="806450"/>
+          <a:ext cx="265907" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>y</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="265907" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="テキスト ボックス 73"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4298950" y="3422650"/>
+          <a:ext cx="265907" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>x</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="303545" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="テキスト ボックス 74"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1593850" y="3397250"/>
+          <a:ext cx="303545" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>O</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1028358" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="テキスト ボックス 75"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2571750" y="2705100"/>
+          <a:ext cx="1028358" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>origin=(4,3)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="直線矢印コネクタ 78"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1911350" y="2438400"/>
+          <a:ext cx="1320800" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="線吹き出し 2 (枠付き) 81"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7899400" y="5226050"/>
+          <a:ext cx="1295400" cy="692150"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 18750"/>
+            <a:gd name="adj4" fmla="val -16667"/>
+            <a:gd name="adj5" fmla="val 150115"/>
+            <a:gd name="adj6" fmla="val -33922"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>②アフィン写像</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>（平行移動）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="図 83"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3486150" y="6826250"/>
+          <a:ext cx="1797050" cy="615950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="図 84"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7620000" y="6267450"/>
+          <a:ext cx="1663700" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="図 85"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5105400" y="1752600"/>
+          <a:ext cx="2343150" cy="622300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>254482</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>240077</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>241020</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>29527</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="右矢印 86"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18003441">
+          <a:off x="3750276" y="3640383"/>
+          <a:ext cx="2837450" cy="304038"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>70332</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>138477</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>56870</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>232727</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="右矢印 87"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="14213817">
+          <a:off x="6741126" y="3538783"/>
+          <a:ext cx="2837450" cy="304038"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>292100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="線吹き出し 2 (枠付き) 88"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6140450" y="3575050"/>
+          <a:ext cx="1295400" cy="984250"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 21976"/>
+            <a:gd name="adj2" fmla="val 11765"/>
+            <a:gd name="adj3" fmla="val -605"/>
+            <a:gd name="adj4" fmla="val -3432"/>
+            <a:gd name="adj5" fmla="val -115088"/>
+            <a:gd name="adj6" fmla="val -8922"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>①線形写像</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>＋</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>②アフィン写像</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="図 89"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3397250" y="8712200"/>
+          <a:ext cx="4057650" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>273050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="図 90"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3848100" y="10382250"/>
+          <a:ext cx="3384550" cy="1778000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="図 91"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3829050" y="12814300"/>
+          <a:ext cx="3524250" cy="2127250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="線吹き出し 2 (枠付き) 92"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4057650" y="9632950"/>
+          <a:ext cx="1295400" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 18750"/>
+            <a:gd name="adj4" fmla="val -16667"/>
+            <a:gd name="adj5" fmla="val -55324"/>
+            <a:gd name="adj6" fmla="val -24118"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>②アフィン写像</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>（平行移動）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="線吹き出し 2 (枠付き) 93"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6273800" y="9620250"/>
+          <a:ext cx="1295400" cy="692150"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 18750"/>
+            <a:gd name="adj4" fmla="val -16667"/>
+            <a:gd name="adj5" fmla="val -71903"/>
+            <a:gd name="adj6" fmla="val -27550"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>①線形写像</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2×2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の行列により与えられる）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="図 48"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3181350" y="16230600"/>
+          <a:ext cx="3886200" cy="1041400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3168650" y="927100"/>
+          <a:ext cx="0" cy="2781300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5384800" y="3365500"/>
+          <a:ext cx="2851150" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>234950</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="265907" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="844550"/>
+          <a:ext cx="265907" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>y</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="265907" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8108950" y="3422650"/>
+          <a:ext cx="265907" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>x</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="303545" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3175000" y="3352800"/>
+          <a:ext cx="303545" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>O</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>273050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>273050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3149600" y="2101850"/>
+          <a:ext cx="6350" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>292100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>292100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1930400" y="3340100"/>
+          <a:ext cx="1212850" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>298450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1180195" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3143250" y="2432050"/>
+          <a:ext cx="1180195" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>corner1=(0,1)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1905000" y="927100"/>
+          <a:ext cx="0" cy="2781300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直線矢印コネクタ 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1587500" y="3365500"/>
+          <a:ext cx="2838450" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="265907" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="テキスト ボックス 29"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1612900" y="806450"/>
+          <a:ext cx="265907" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>y</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="265907" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4298950" y="3422650"/>
+          <a:ext cx="265907" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>x</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="303545" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1593850" y="3397250"/>
+          <a:ext cx="303545" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>O</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1235146" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="テキスト ボックス 49"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905000" y="3435350"/>
+          <a:ext cx="1235146" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>corner2=(-1,0)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1926361" cy="559127"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="テキスト ボックス 51"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1130300" y="1587500"/>
+          <a:ext cx="1926361" cy="559127"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>反時計回りに</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>90</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>度回転</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>線形写像</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="図 52"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="749300" y="3987800"/>
+          <a:ext cx="3625850" cy="1244600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直線矢印コネクタ 60"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7588250" y="2095500"/>
+          <a:ext cx="6350" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直線矢印コネクタ 61"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6369050" y="3333750"/>
+          <a:ext cx="1212850" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>292100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1180195" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="テキスト ボックス 62"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7581900" y="2425700"/>
+          <a:ext cx="1180195" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>corner1=(0,1)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1235146" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="テキスト ボックス 63"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6318250" y="2927350"/>
+          <a:ext cx="1235146" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>corner2=(-1,0)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="直線矢印コネクタ 64"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6369050" y="3422650"/>
+          <a:ext cx="1238250" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1028358" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="テキスト ボックス 67"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6432550" y="3492500"/>
+          <a:ext cx="1028358" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>origin=(1,0)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1211101" cy="559127"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="テキスト ボックス 68"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4692650" y="3003550"/>
+          <a:ext cx="1211101" cy="559127"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>平行移動</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>アフィン写像</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="右矢印 69"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4521200" y="2336800"/>
+          <a:ext cx="1701800" cy="546100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>234950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="図 71"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5651500" y="5283200"/>
+          <a:ext cx="4330700" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3530600" cy="325730"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="テキスト ボックス 72"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6159500" y="4768850"/>
+          <a:ext cx="3530600" cy="325730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>SICP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>では以下のように表現している。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="図 73"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6191250" y="3803650"/>
+          <a:ext cx="2362200" cy="615950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2320,7 +7695,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.54296875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2335,8 +7710,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.54296875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="L31:L45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="AB57" sqref="AB57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.54296875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="31" spans="12:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="12:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="12:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="12:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12"/>
+      <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.54296875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
